--- a/data_analysis/week/33.xlsx
+++ b/data_analysis/week/33.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27880" windowHeight="13000"/>
+    <workbookView windowWidth="24940" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <t>大区</t>
   </si>
   <si>
-    <t>管理中心</t>
+    <t>去敏</t>
   </si>
   <si>
     <t>项目编码</t>
@@ -76,7 +76,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>A01东莞东部管理中心</t>
+    <t>A01东莞东部去敏</t>
   </si>
   <si>
     <t>50900904</t>
@@ -103,7 +103,7 @@
     <t>50904014</t>
   </si>
   <si>
-    <t>东莞万科松朗花园</t>
+    <t>东莞去敏松朗花园</t>
   </si>
   <si>
     <t>50908521</t>
@@ -121,7 +121,7 @@
     <t>50900668</t>
   </si>
   <si>
-    <t>东莞万科金域缇香花园</t>
+    <t>东莞去敏金域缇香花园</t>
   </si>
   <si>
     <t>50834617</t>
@@ -157,7 +157,7 @@
     <t>50834621</t>
   </si>
   <si>
-    <t>东莞万科湖畔花园</t>
+    <t>东莞去敏湖畔花园</t>
   </si>
   <si>
     <t>50900926</t>
@@ -181,7 +181,7 @@
     <t>50834610</t>
   </si>
   <si>
-    <t>东莞常平万科城</t>
+    <t>东莞常平去敏城</t>
   </si>
   <si>
     <t>50834614</t>
@@ -202,13 +202,13 @@
     <t>Q东莞锦绣豪园</t>
   </si>
   <si>
-    <t>A02阵地经营体</t>
+    <t>A02去敏</t>
   </si>
   <si>
     <t>50834631</t>
   </si>
   <si>
-    <t>东莞虎门万科花园</t>
+    <t>东莞虎门去敏花园</t>
   </si>
   <si>
     <t>50834641</t>
@@ -232,7 +232,7 @@
     <t>50834630</t>
   </si>
   <si>
-    <t>东莞虎门万科城</t>
+    <t>东莞虎门去敏城</t>
   </si>
   <si>
     <t>50834625</t>
@@ -346,7 +346,7 @@
     <t>50834639</t>
   </si>
   <si>
-    <t>东莞万科云广场</t>
+    <t>东莞去敏云广场</t>
   </si>
   <si>
     <t>50834637</t>
@@ -361,7 +361,7 @@
     <t>东莞翰林城市花园</t>
   </si>
   <si>
-    <t>A03阵地经营体</t>
+    <t>A03去敏</t>
   </si>
   <si>
     <t>50834652</t>
@@ -454,7 +454,7 @@
     <t>深圳天誉</t>
   </si>
   <si>
-    <t>A04深圳西部管理中心</t>
+    <t>A04深圳西部去敏</t>
   </si>
   <si>
     <t>50834647</t>
@@ -484,7 +484,7 @@
     <t>50834657</t>
   </si>
   <si>
-    <t>深圳万科云城</t>
+    <t>深圳去敏云城</t>
   </si>
   <si>
     <t>50834665</t>
@@ -496,7 +496,7 @@
     <t>50908379</t>
   </si>
   <si>
-    <t>深圳万科蛇口公馆</t>
+    <t>深圳去敏蛇口公馆</t>
   </si>
   <si>
     <t>50834646</t>
@@ -547,7 +547,7 @@
     <t>Q深圳浪琴屿花园</t>
   </si>
   <si>
-    <t>A05阵地经营体</t>
+    <t>A05去敏</t>
   </si>
   <si>
     <t>50834685</t>
@@ -670,7 +670,7 @@
     <t>深圳城市花园</t>
   </si>
   <si>
-    <t>A06深圳东部管理中心</t>
+    <t>A06深圳东部去敏</t>
   </si>
   <si>
     <t>50834708</t>
@@ -718,7 +718,7 @@
     <t>50834672</t>
   </si>
   <si>
-    <t>万科红物业服务中心</t>
+    <t>去敏红物业服务中心</t>
   </si>
   <si>
     <t>50834701</t>
@@ -829,7 +829,7 @@
     <t>深圳俊园</t>
   </si>
   <si>
-    <t>A07厦门城区管理中心</t>
+    <t>A07厦门城区去敏</t>
   </si>
   <si>
     <t>50834720</t>
@@ -853,7 +853,7 @@
     <t>50834725</t>
   </si>
   <si>
-    <t>厦门海沧万科城</t>
+    <t>厦门海沧去敏城</t>
   </si>
   <si>
     <t>50901105</t>
@@ -889,7 +889,7 @@
     <t>50834730</t>
   </si>
   <si>
-    <t>厦门万科广场</t>
+    <t>厦门去敏广场</t>
   </si>
   <si>
     <t>50834728</t>
@@ -928,13 +928,13 @@
     <t>Q厦门IOI园博湾</t>
   </si>
   <si>
-    <t>A08阵地经营体</t>
+    <t>A08去敏</t>
   </si>
   <si>
     <t>50834742</t>
   </si>
   <si>
-    <t>福州万科城</t>
+    <t>福州去敏城</t>
   </si>
   <si>
     <t>50836570</t>
@@ -964,7 +964,7 @@
     <t>50905498</t>
   </si>
   <si>
-    <t>福州万科金融港中心</t>
+    <t>福州去敏金融港中心</t>
   </si>
   <si>
     <t>50900258</t>
@@ -1030,13 +1030,13 @@
     <t>50834744</t>
   </si>
   <si>
-    <t>莆田万科城</t>
+    <t>莆田去敏城</t>
   </si>
   <si>
     <t>50834743</t>
   </si>
   <si>
-    <t>福州万科广场</t>
+    <t>福州去敏广场</t>
   </si>
   <si>
     <t>50834740</t>
@@ -1063,7 +1063,7 @@
     <t>Q莆田正鼎小镇</t>
   </si>
   <si>
-    <t>A09泉州城区管理中心</t>
+    <t>A09泉州城区去敏</t>
   </si>
   <si>
     <t>50834747</t>
@@ -1207,7 +1207,7 @@
     <t>50834769</t>
   </si>
   <si>
-    <t>泉州万科城</t>
+    <t>泉州去敏城</t>
   </si>
   <si>
     <t>50908392</t>
@@ -1228,13 +1228,13 @@
     <t>泉州城市之光</t>
   </si>
   <si>
-    <t>A10厦漳管理中心</t>
+    <t>A10厦漳去敏</t>
   </si>
   <si>
     <t>50834731</t>
   </si>
   <si>
-    <t>漳州万科城</t>
+    <t>漳州去敏城</t>
   </si>
   <si>
     <t>50900835</t>
@@ -1339,7 +1339,7 @@
     <t>K厦门国建东海岸</t>
   </si>
   <si>
-    <t>A11阵地经营体</t>
+    <t>A11去敏</t>
   </si>
   <si>
     <t>50834664</t>
@@ -1381,13 +1381,13 @@
     <t>50834671</t>
   </si>
   <si>
-    <t>深圳万科紫悦山</t>
+    <t>深圳去敏紫悦山</t>
   </si>
   <si>
     <t>50834670</t>
   </si>
   <si>
-    <t>深圳万科麓城</t>
+    <t>深圳去敏麓城</t>
   </si>
   <si>
     <t>50908461</t>
@@ -1399,7 +1399,7 @@
     <t>50834669</t>
   </si>
   <si>
-    <t>深圳万科城</t>
+    <t>深圳去敏城</t>
   </si>
   <si>
     <t>50906779</t>
@@ -1423,7 +1423,7 @@
     <t>B</t>
   </si>
   <si>
-    <t>B01杭州城南管理中心</t>
+    <t>B01杭州城南去敏</t>
   </si>
   <si>
     <t>50905938</t>
@@ -1435,7 +1435,7 @@
     <t>50834797</t>
   </si>
   <si>
-    <t>杭州万科公望四期</t>
+    <t>杭州去敏公望四期</t>
   </si>
   <si>
     <t>50906360</t>
@@ -1495,7 +1495,7 @@
     <t>50904695</t>
   </si>
   <si>
-    <t>杭州万科公望五期</t>
+    <t>杭州去敏公望五期</t>
   </si>
   <si>
     <t>50834790</t>
@@ -1525,7 +1525,7 @@
     <t>50834798</t>
   </si>
   <si>
-    <t>杭州万科公望一二三期</t>
+    <t>杭州去敏公望一二三期</t>
   </si>
   <si>
     <t>50900369</t>
@@ -1558,7 +1558,7 @@
     <t>杭州锦浦江岸公寓</t>
   </si>
   <si>
-    <t>B02阵地经营体</t>
+    <t>B02去敏</t>
   </si>
   <si>
     <t>50834801</t>
@@ -1741,19 +1741,19 @@
     <t>温州金溪园</t>
   </si>
   <si>
-    <t>B03阵地经营体</t>
+    <t>B03去敏</t>
   </si>
   <si>
     <t>50834837</t>
   </si>
   <si>
-    <t>南昌万科粹叠园</t>
+    <t>南昌去敏粹叠园</t>
   </si>
   <si>
     <t>50834836</t>
   </si>
   <si>
-    <t>南昌万科城</t>
+    <t>南昌去敏城</t>
   </si>
   <si>
     <t>50834833</t>
@@ -1849,7 +1849,7 @@
     <t>50834838</t>
   </si>
   <si>
-    <t>南昌万科金域小区</t>
+    <t>南昌去敏金域小区</t>
   </si>
   <si>
     <t>50907844</t>
@@ -1867,7 +1867,7 @@
     <t>50834829</t>
   </si>
   <si>
-    <t>南昌地铁万科时代广场</t>
+    <t>南昌地铁去敏时代广场</t>
   </si>
   <si>
     <t>50834828</t>
@@ -1876,7 +1876,7 @@
     <t>金色名俊</t>
   </si>
   <si>
-    <t>B04杭州城西管理中心</t>
+    <t>B04杭州城西去敏</t>
   </si>
   <si>
     <t>50900372</t>
@@ -2035,7 +2035,7 @@
     <t>杭州栖岚院二期</t>
   </si>
   <si>
-    <t>B05杭州城东管理中心</t>
+    <t>B05杭州城东去敏</t>
   </si>
   <si>
     <t>50834903</t>
@@ -2113,7 +2113,7 @@
     <t>50834884</t>
   </si>
   <si>
-    <t>杭州万科草庄</t>
+    <t>杭州去敏草庄</t>
   </si>
   <si>
     <t>50903170</t>
@@ -2182,7 +2182,7 @@
     <t>杭州魅力之城</t>
   </si>
   <si>
-    <t>B06宁波西南管理中心</t>
+    <t>B06宁波西南去敏</t>
   </si>
   <si>
     <t>50834974</t>
@@ -2290,7 +2290,7 @@
     <t>50906332</t>
   </si>
   <si>
-    <t>宁波万科桂语里</t>
+    <t>宁波去敏桂语里</t>
   </si>
   <si>
     <t>50834988</t>
@@ -2332,7 +2332,7 @@
     <t>50905543</t>
   </si>
   <si>
-    <t>宁波万科广源里</t>
+    <t>宁波去敏广源里</t>
   </si>
   <si>
     <t>50834965</t>
@@ -2368,7 +2368,7 @@
     <t>50834946</t>
   </si>
   <si>
-    <t>宁波万科传奇里</t>
+    <t>宁波去敏传奇里</t>
   </si>
   <si>
     <t>50834961</t>
@@ -2389,7 +2389,7 @@
     <t>Q宁波雅明花苑</t>
   </si>
   <si>
-    <t>B07阵地经营体</t>
+    <t>B07去敏</t>
   </si>
   <si>
     <t>50834928</t>
@@ -2638,7 +2638,7 @@
     <t>Z宁波都市森林</t>
   </si>
   <si>
-    <t>B08宁波东北管理中心</t>
+    <t>B08宁波东北去敏</t>
   </si>
   <si>
     <t>50834920</t>
@@ -2734,13 +2734,13 @@
     <t>50900899</t>
   </si>
   <si>
-    <t>宁波万科都心里</t>
+    <t>宁波去敏都心里</t>
   </si>
   <si>
     <t>50834926</t>
   </si>
   <si>
-    <t>宁波万科城东郡</t>
+    <t>宁波去敏城东郡</t>
   </si>
   <si>
     <t>50906808</t>
@@ -2752,25 +2752,25 @@
     <t>50834925</t>
   </si>
   <si>
-    <t>宁波万科城</t>
+    <t>宁波去敏城</t>
   </si>
   <si>
     <t>50901106</t>
   </si>
   <si>
-    <t>万科城堂院</t>
+    <t>去敏城堂院</t>
   </si>
   <si>
     <t>50834972</t>
   </si>
   <si>
-    <t>宁波万科惇叙里</t>
+    <t>宁波去敏惇叙里</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>C01阵地经营体</t>
+    <t>C01去敏</t>
   </si>
   <si>
     <t>50906774</t>
@@ -2800,7 +2800,7 @@
     <t>50901628</t>
   </si>
   <si>
-    <t>沈阳万科城市之光清水房</t>
+    <t>沈阳去敏城市之光清水房</t>
   </si>
   <si>
     <t>50835000</t>
@@ -2923,7 +2923,7 @@
     <t>R沈阳伯爵源筑</t>
   </si>
   <si>
-    <t>C02阵地经营体</t>
+    <t>C02去敏</t>
   </si>
   <si>
     <t>50835025</t>
@@ -2971,7 +2971,7 @@
     <t>50906019</t>
   </si>
   <si>
-    <t>沈阳万科兰峰苑</t>
+    <t>沈阳去敏兰峰苑</t>
   </si>
   <si>
     <t>50836666</t>
@@ -3040,7 +3040,7 @@
     <t>沈阳金域国际</t>
   </si>
   <si>
-    <t>C03阵地经营体</t>
+    <t>C03去敏</t>
   </si>
   <si>
     <t>50835047</t>
@@ -3070,7 +3070,7 @@
     <t>50907154</t>
   </si>
   <si>
-    <t>沈阳万科明日之光</t>
+    <t>沈阳去敏明日之光</t>
   </si>
   <si>
     <t>50835043</t>
@@ -3112,13 +3112,13 @@
     <t>50906735</t>
   </si>
   <si>
-    <t>万科仲山花园</t>
+    <t>去敏仲山花园</t>
   </si>
   <si>
     <t>50835050</t>
   </si>
   <si>
-    <t>沈阳万科城</t>
+    <t>沈阳去敏城</t>
   </si>
   <si>
     <t>50835041</t>
@@ -3139,13 +3139,13 @@
     <t>沈阳郁金香</t>
   </si>
   <si>
-    <t>C04沈鞍管理中心</t>
+    <t>C04沈鞍去敏</t>
   </si>
   <si>
     <t>50906032</t>
   </si>
   <si>
-    <t>沈阳万科四季苑</t>
+    <t>沈阳去敏四季苑</t>
   </si>
   <si>
     <t>50834999</t>
@@ -3163,7 +3163,7 @@
     <t>50907120</t>
   </si>
   <si>
-    <t>Q沈阳信达万科城</t>
+    <t>Q沈阳信达去敏城</t>
   </si>
   <si>
     <t>50835002</t>
@@ -3205,7 +3205,7 @@
     <t>50904071</t>
   </si>
   <si>
-    <t>鞍山万科金域华府</t>
+    <t>鞍山去敏金域华府</t>
   </si>
   <si>
     <t>50835019</t>
@@ -3235,7 +3235,7 @@
     <t>50904329</t>
   </si>
   <si>
-    <t>沈阳万科西盛花园</t>
+    <t>沈阳去敏西盛花园</t>
   </si>
   <si>
     <t>50902161</t>
@@ -3247,7 +3247,7 @@
     <t>50835059</t>
   </si>
   <si>
-    <t>鞍山万科城</t>
+    <t>鞍山去敏城</t>
   </si>
   <si>
     <t>50907128</t>
@@ -3268,13 +3268,13 @@
     <t>Q沈阳郡原小石城</t>
   </si>
   <si>
-    <t>C05阵地经营体</t>
+    <t>C05去敏</t>
   </si>
   <si>
     <t>50904892</t>
   </si>
   <si>
-    <t>Q大连万科百年港湾</t>
+    <t>Q大连去敏百年港湾</t>
   </si>
   <si>
     <t>50835076</t>
@@ -3286,13 +3286,13 @@
     <t>50835079</t>
   </si>
   <si>
-    <t>大连万科城市之光</t>
+    <t>大连去敏城市之光</t>
   </si>
   <si>
     <t>50900849</t>
   </si>
   <si>
-    <t>大连万科半山半海</t>
+    <t>大连去敏半山半海</t>
   </si>
   <si>
     <t>50835074</t>
@@ -3304,7 +3304,7 @@
     <t>50835078</t>
   </si>
   <si>
-    <t>大连万科城</t>
+    <t>大连去敏城</t>
   </si>
   <si>
     <t>50835063</t>
@@ -3328,7 +3328,7 @@
     <t>50835080</t>
   </si>
   <si>
-    <t>大连万科公园里二期</t>
+    <t>大连去敏公园里二期</t>
   </si>
   <si>
     <t>50900275</t>
@@ -3370,7 +3370,7 @@
     <t>50906971</t>
   </si>
   <si>
-    <t>大连万科八栋墅</t>
+    <t>大连去敏八栋墅</t>
   </si>
   <si>
     <t>50835072</t>
@@ -3388,13 +3388,13 @@
     <t>50906052</t>
   </si>
   <si>
-    <t>Q大连万科尚品中南</t>
+    <t>Q大连去敏尚品中南</t>
   </si>
   <si>
     <t>50906489</t>
   </si>
   <si>
-    <t>大连万科新都会</t>
+    <t>大连去敏新都会</t>
   </si>
   <si>
     <t>50835065</t>
@@ -3406,7 +3406,7 @@
     <t>50904070</t>
   </si>
   <si>
-    <t>大连万科中南府</t>
+    <t>大连去敏中南府</t>
   </si>
   <si>
     <t>50835073</t>
@@ -3424,7 +3424,7 @@
     <t>50909923</t>
   </si>
   <si>
-    <t>Q大连万科城市印象</t>
+    <t>Q大连去敏城市印象</t>
   </si>
   <si>
     <t>50835082</t>
@@ -3448,10 +3448,10 @@
     <t>50906210</t>
   </si>
   <si>
-    <t>大连万科翡翠公园</t>
-  </si>
-  <si>
-    <t>C06阵地经营体</t>
+    <t>大连去敏翡翠公园</t>
+  </si>
+  <si>
+    <t>C06去敏</t>
   </si>
   <si>
     <t>50835085</t>
@@ -3505,7 +3505,7 @@
     <t>50906298</t>
   </si>
   <si>
-    <t>长春万科城市之光</t>
+    <t>长春去敏城市之光</t>
   </si>
   <si>
     <t>50835084</t>
@@ -3559,10 +3559,10 @@
     <t>50909334</t>
   </si>
   <si>
-    <t>长春万科繁荣里</t>
-  </si>
-  <si>
-    <t>C07长春东南管理中心</t>
+    <t>长春去敏繁荣里</t>
+  </si>
+  <si>
+    <t>C07长春东南去敏</t>
   </si>
   <si>
     <t>50836776</t>
@@ -3574,7 +3574,7 @@
     <t>50835100</t>
   </si>
   <si>
-    <t>吉林万科城一期</t>
+    <t>吉林去敏城一期</t>
   </si>
   <si>
     <t>50835102</t>
@@ -3586,37 +3586,37 @@
     <t>50835106</t>
   </si>
   <si>
-    <t>长春万科城</t>
+    <t>长春去敏城</t>
   </si>
   <si>
     <t>50836779</t>
   </si>
   <si>
-    <t>吉林万科上东区</t>
+    <t>吉林去敏上东区</t>
   </si>
   <si>
     <t>50909345</t>
   </si>
   <si>
-    <t>哈尔滨万科招商城市之光</t>
+    <t>哈尔滨去敏招商城市之光</t>
   </si>
   <si>
     <t>50904279</t>
   </si>
   <si>
-    <t>长春万科惠斯勒小镇班芙花园</t>
+    <t>长春去敏惠斯勒小镇班芙花园</t>
   </si>
   <si>
     <t>50901050</t>
   </si>
   <si>
-    <t>长春万科如园</t>
+    <t>长春去敏如园</t>
   </si>
   <si>
     <t>50835099</t>
   </si>
   <si>
-    <t>吉林万科城二期</t>
+    <t>吉林去敏城二期</t>
   </si>
   <si>
     <t>50835105</t>
@@ -3682,7 +3682,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>D01阵地经营体</t>
+    <t>D01去敏</t>
   </si>
   <si>
     <t>50835125</t>
@@ -3814,7 +3814,7 @@
     <t>50835138</t>
   </si>
   <si>
-    <t>北京万科城</t>
+    <t>北京去敏城</t>
   </si>
   <si>
     <t>50835134</t>
@@ -3901,7 +3901,7 @@
     <t>Q北京首创天阅嘉苑</t>
   </si>
   <si>
-    <t>D02北京东部管理中心</t>
+    <t>D02北京东部去敏</t>
   </si>
   <si>
     <t>50835146</t>
@@ -3913,7 +3913,7 @@
     <t>50835160</t>
   </si>
   <si>
-    <t>北京万科红</t>
+    <t>北京去敏红</t>
   </si>
   <si>
     <t>50835153</t>
@@ -4012,7 +4012,7 @@
     <t>北京润泉家苑</t>
   </si>
   <si>
-    <t>D03北京西南管理中心</t>
+    <t>D03北京西南去敏</t>
   </si>
   <si>
     <t>50835169</t>
@@ -4159,7 +4159,7 @@
     <t>北京九晟商业广场</t>
   </si>
   <si>
-    <t>D04阵地经营体</t>
+    <t>D04去敏</t>
   </si>
   <si>
     <t>50835183</t>
@@ -4255,7 +4255,7 @@
     <t>50835191</t>
   </si>
   <si>
-    <t>秦皇岛天洋万科戴河丽</t>
+    <t>秦皇岛天洋去敏戴河丽</t>
   </si>
   <si>
     <t>50835185</t>
@@ -4285,7 +4285,7 @@
     <t>50835189</t>
   </si>
   <si>
-    <t>廊坊香河五矿万科城</t>
+    <t>廊坊香河五矿去敏城</t>
   </si>
   <si>
     <t>50835197</t>
@@ -4321,7 +4321,7 @@
     <t>50909144</t>
   </si>
   <si>
-    <t>唐山万科金域缇香</t>
+    <t>唐山去敏金域缇香</t>
   </si>
   <si>
     <t>50906348</t>
@@ -4378,7 +4378,7 @@
     <t>天津清水港湾</t>
   </si>
   <si>
-    <t>D05天津城区管理中心</t>
+    <t>D05天津城区去敏</t>
   </si>
   <si>
     <t>50908671</t>
@@ -4555,13 +4555,13 @@
     <t>CSW天津首创城</t>
   </si>
   <si>
-    <t>D06阵地经营体</t>
+    <t>D06去敏</t>
   </si>
   <si>
     <t>50835253</t>
   </si>
   <si>
-    <t>青岛万科城</t>
+    <t>青岛去敏城</t>
   </si>
   <si>
     <t>50900326</t>
@@ -4639,7 +4639,7 @@
     <t>50835254</t>
   </si>
   <si>
-    <t>青岛万科桃花源</t>
+    <t>青岛去敏桃花源</t>
   </si>
   <si>
     <t>50835258</t>
@@ -4663,13 +4663,13 @@
     <t>50835255</t>
   </si>
   <si>
-    <t>青岛万科紫台</t>
+    <t>青岛去敏紫台</t>
   </si>
   <si>
     <t>50903589</t>
   </si>
   <si>
-    <t>青岛万科未来城</t>
+    <t>青岛去敏未来城</t>
   </si>
   <si>
     <t>50835239</t>
@@ -4705,7 +4705,7 @@
     <t>50904000</t>
   </si>
   <si>
-    <t>青岛万科金域华府</t>
+    <t>青岛去敏金域华府</t>
   </si>
   <si>
     <t>50835240</t>
@@ -4744,7 +4744,7 @@
     <t>Q青岛凯景广场</t>
   </si>
   <si>
-    <t>D07阵地经营体</t>
+    <t>D07去敏</t>
   </si>
   <si>
     <t>50835262</t>
@@ -4810,7 +4810,7 @@
     <t>50835291</t>
   </si>
   <si>
-    <t>烟台万科城</t>
+    <t>烟台去敏城</t>
   </si>
   <si>
     <t>50903372</t>
@@ -4828,7 +4828,7 @@
     <t>50901092</t>
   </si>
   <si>
-    <t>青岛万科朗润园</t>
+    <t>青岛去敏朗润园</t>
   </si>
   <si>
     <t>50835276</t>
@@ -4882,13 +4882,13 @@
     <t>50903741</t>
   </si>
   <si>
-    <t>烟台万科翡翠公园</t>
+    <t>烟台去敏翡翠公园</t>
   </si>
   <si>
     <t>50907183</t>
   </si>
   <si>
-    <t>青岛万科生态新城如园</t>
+    <t>青岛去敏生态新城如园</t>
   </si>
   <si>
     <t>50835290</t>
@@ -4900,13 +4900,13 @@
     <t>50835285</t>
   </si>
   <si>
-    <t>青岛平度万科城观荷</t>
+    <t>青岛平度去敏城观荷</t>
   </si>
   <si>
     <t>50907184</t>
   </si>
   <si>
-    <t>烟台万科城市之光</t>
+    <t>烟台去敏城市之光</t>
   </si>
   <si>
     <t>50835288</t>
@@ -4954,7 +4954,7 @@
     <t>50835284</t>
   </si>
   <si>
-    <t>青岛平度万科城</t>
+    <t>青岛平度去敏城</t>
   </si>
   <si>
     <t>50836863</t>
@@ -4969,13 +4969,13 @@
     <t>烟台假日风景</t>
   </si>
   <si>
-    <t>D08济南城区管理中心</t>
+    <t>D08济南城区去敏</t>
   </si>
   <si>
     <t>50907137</t>
   </si>
   <si>
-    <t>济南万科悦峯花园</t>
+    <t>济南去敏悦峯花园</t>
   </si>
   <si>
     <t>50901696</t>
@@ -4993,7 +4993,7 @@
     <t>50835297</t>
   </si>
   <si>
-    <t>济南万科公园里家园</t>
+    <t>济南去敏公园里家园</t>
   </si>
   <si>
     <t>50835294</t>
@@ -5005,13 +5005,13 @@
     <t>50835298</t>
   </si>
   <si>
-    <t>济南万科金域国际天泰</t>
+    <t>济南去敏金域国际天泰</t>
   </si>
   <si>
     <t>50904696</t>
   </si>
   <si>
-    <t>济南万科麓城</t>
+    <t>济南去敏麓城</t>
   </si>
   <si>
     <t>50904736</t>
@@ -5029,19 +5029,19 @@
     <t>50907122</t>
   </si>
   <si>
-    <t>济南万科龙湖紫郡</t>
+    <t>济南去敏龙湖紫郡</t>
   </si>
   <si>
     <t>50907123</t>
   </si>
   <si>
-    <t>济南万科龙湖城市之光小区</t>
+    <t>济南去敏龙湖城市之光小区</t>
   </si>
   <si>
     <t>50835301</t>
   </si>
   <si>
-    <t>济南万科幸福里小区</t>
+    <t>济南去敏幸福里小区</t>
   </si>
   <si>
     <t>50907133</t>
@@ -5053,7 +5053,7 @@
     <t>50907136</t>
   </si>
   <si>
-    <t>济南万科海晏门小区</t>
+    <t>济南去敏海晏门小区</t>
   </si>
   <si>
     <t>50836788</t>
@@ -5065,19 +5065,19 @@
     <t>50835299</t>
   </si>
   <si>
-    <t>济南万科天泰金域国际</t>
+    <t>济南去敏天泰金域国际</t>
   </si>
   <si>
     <t>50835296</t>
   </si>
   <si>
-    <t>济南万科城</t>
+    <t>济南去敏城</t>
   </si>
   <si>
     <t>50835300</t>
   </si>
   <si>
-    <t>济南万科新里程花园</t>
+    <t>济南去敏新里程花园</t>
   </si>
   <si>
     <t>50836789</t>
@@ -5092,19 +5092,19 @@
     <t>济南泊寓西城店</t>
   </si>
   <si>
-    <t>D09太原管理中心</t>
+    <t>D09太原去敏</t>
   </si>
   <si>
     <t>50904253</t>
   </si>
   <si>
-    <t>太原万科金域蓝湾</t>
+    <t>太原去敏金域蓝湾</t>
   </si>
   <si>
     <t>50835195</t>
   </si>
   <si>
-    <t>太原万科城</t>
+    <t>太原去敏城</t>
   </si>
   <si>
     <t>50835194</t>
@@ -5146,13 +5146,13 @@
     <t>50900655</t>
   </si>
   <si>
-    <t>太原四建万科蓝山</t>
+    <t>太原四建去敏蓝山</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>E01阵地经营体</t>
+    <t>E01去敏</t>
   </si>
   <si>
     <t>50835317</t>
@@ -5335,7 +5335,7 @@
     <t>Q苏州荣域花园</t>
   </si>
   <si>
-    <t>E02阵地经营体</t>
+    <t>E02去敏</t>
   </si>
   <si>
     <t>50835339</t>
@@ -5422,7 +5422,7 @@
     <t>Q无锡太湖威尼斯花园</t>
   </si>
   <si>
-    <t>E03阵地经营体</t>
+    <t>E03去敏</t>
   </si>
   <si>
     <t>50835361</t>
@@ -5518,7 +5518,7 @@
     <t>50835366</t>
   </si>
   <si>
-    <t>徐州万科城</t>
+    <t>徐州去敏城</t>
   </si>
   <si>
     <t>50835363</t>
@@ -5593,7 +5593,7 @@
     <t>Q南京天正滨江花园</t>
   </si>
   <si>
-    <t>E04阵地经营体</t>
+    <t>E04去敏</t>
   </si>
   <si>
     <t>50835368</t>
@@ -5629,7 +5629,7 @@
     <t>50835385</t>
   </si>
   <si>
-    <t>扬州万科城</t>
+    <t>扬州去敏城</t>
   </si>
   <si>
     <t>50835383</t>
@@ -5767,7 +5767,7 @@
     <t>50835386</t>
   </si>
   <si>
-    <t>扬州万科金色梦想花园</t>
+    <t>扬州去敏金色梦想花园</t>
   </si>
   <si>
     <t>50835373</t>
@@ -5794,7 +5794,7 @@
     <t>南京璞悦山花园</t>
   </si>
   <si>
-    <t>E05阵地经营体</t>
+    <t>E05去敏</t>
   </si>
   <si>
     <t>50905531</t>
@@ -5830,7 +5830,7 @@
     <t>50835404</t>
   </si>
   <si>
-    <t>芜湖万科城</t>
+    <t>芜湖去敏城</t>
   </si>
   <si>
     <t>50835392</t>
@@ -5854,7 +5854,7 @@
     <t>50835401</t>
   </si>
   <si>
-    <t>合肥万科城</t>
+    <t>合肥去敏城</t>
   </si>
   <si>
     <t>50835399</t>
@@ -5896,7 +5896,7 @@
     <t>50835402</t>
   </si>
   <si>
-    <t>合肥万科城市公馆</t>
+    <t>合肥去敏城市公馆</t>
   </si>
   <si>
     <t>50835391</t>
@@ -5923,7 +5923,7 @@
     <t>合肥森林城</t>
   </si>
   <si>
-    <t>E06苏州城东管理中心</t>
+    <t>E06苏州城东去敏</t>
   </si>
   <si>
     <t>50835426</t>
@@ -6016,7 +6016,7 @@
     <t>苏州大家花园</t>
   </si>
   <si>
-    <t>E07无锡城东管理中心</t>
+    <t>E07无锡城东去敏</t>
   </si>
   <si>
     <t>50835437</t>
@@ -6046,7 +6046,7 @@
     <t>50835453</t>
   </si>
   <si>
-    <t>无锡万科家园</t>
+    <t>无锡去敏家园</t>
   </si>
   <si>
     <t>50904472</t>
@@ -6109,7 +6109,7 @@
     <t>常州柏悦湾花园</t>
   </si>
   <si>
-    <t>E08上海高端管理中心</t>
+    <t>E08上海高端去敏</t>
   </si>
   <si>
     <t>50906968</t>
@@ -6151,7 +6151,7 @@
     <t>50835468</t>
   </si>
   <si>
-    <t>上海万科广场</t>
+    <t>上海去敏广场</t>
   </si>
   <si>
     <t>50835456</t>
@@ -6220,7 +6220,7 @@
     <t>上海红郡</t>
   </si>
   <si>
-    <t>E09上海西南管理中心</t>
+    <t>E09上海西南去敏</t>
   </si>
   <si>
     <t>50835478</t>
@@ -6238,7 +6238,7 @@
     <t>50835476</t>
   </si>
   <si>
-    <t>上海春申万科城</t>
+    <t>上海春申去敏城</t>
   </si>
   <si>
     <t>50835489</t>
@@ -6304,7 +6304,7 @@
     <t>50835487</t>
   </si>
   <si>
-    <t>上海万科海尚华庭</t>
+    <t>上海去敏海尚华庭</t>
   </si>
   <si>
     <t>50900861</t>
@@ -6361,7 +6361,7 @@
     <t>上海马桥景城品雅苑</t>
   </si>
   <si>
-    <t>E10上海东北管理中心</t>
+    <t>E10上海东北去敏</t>
   </si>
   <si>
     <t>50835492</t>
@@ -6556,7 +6556,7 @@
     <t>K上海中邦城市园（A地</t>
   </si>
   <si>
-    <t>E11上海西北管理中心</t>
+    <t>E11上海西北去敏</t>
   </si>
   <si>
     <t>50835520</t>
@@ -6616,7 +6616,7 @@
     <t>50905465</t>
   </si>
   <si>
-    <t>上海万科天空融苑</t>
+    <t>上海去敏天空融苑</t>
   </si>
   <si>
     <t>50835529</t>
@@ -6706,7 +6706,7 @@
     <t>50835534</t>
   </si>
   <si>
-    <t>上海虹桥万科润园</t>
+    <t>上海虹桥去敏润园</t>
   </si>
   <si>
     <t>50835531</t>
@@ -6715,7 +6715,7 @@
     <t>上海城花新园</t>
   </si>
   <si>
-    <t>E12阵地经营体</t>
+    <t>E12去敏</t>
   </si>
   <si>
     <t>50835358</t>
@@ -6802,7 +6802,7 @@
     <t>Q南京苏源颐和东园</t>
   </si>
   <si>
-    <t>E13阵地经营体</t>
+    <t>E13去敏</t>
   </si>
   <si>
     <t>50835414</t>
@@ -6898,7 +6898,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>F01阵地经营体</t>
+    <t>F01去敏</t>
   </si>
   <si>
     <t>50802428</t>
@@ -6985,7 +6985,7 @@
     <t>R广州大运家园</t>
   </si>
   <si>
-    <t>F02阵地经营体</t>
+    <t>F02去敏</t>
   </si>
   <si>
     <t>50802449</t>
@@ -7096,13 +7096,13 @@
     <t>广州府前花园</t>
   </si>
   <si>
-    <t>F03广州东清管理中心</t>
+    <t>F03广州东清去敏</t>
   </si>
   <si>
     <t>50802462</t>
   </si>
   <si>
-    <t>清远万科华府</t>
+    <t>清远去敏华府</t>
   </si>
   <si>
     <t>50900217</t>
@@ -7114,7 +7114,7 @@
     <t>50802461</t>
   </si>
   <si>
-    <t>清远万科城</t>
+    <t>清远去敏城</t>
   </si>
   <si>
     <t>50900213</t>
@@ -7138,7 +7138,7 @@
     <t>50802459</t>
   </si>
   <si>
-    <t>广州万科城新里程</t>
+    <t>广州去敏城新里程</t>
   </si>
   <si>
     <t>50900041</t>
@@ -7150,7 +7150,7 @@
     <t>50802458</t>
   </si>
   <si>
-    <t>广州万科城花园</t>
+    <t>广州去敏城花园</t>
   </si>
   <si>
     <t>50904037</t>
@@ -7219,7 +7219,7 @@
     <t>广州金色梦想花园</t>
   </si>
   <si>
-    <t>F04阵地经营体</t>
+    <t>F04去敏</t>
   </si>
   <si>
     <t>50835546</t>
@@ -7261,7 +7261,7 @@
     <t>50906556</t>
   </si>
   <si>
-    <t>万科万域华庭</t>
+    <t>去敏万域华庭</t>
   </si>
   <si>
     <t>50906213</t>
@@ -7291,7 +7291,7 @@
     <t>50907146</t>
   </si>
   <si>
-    <t>佛山万科金色雅苑</t>
+    <t>佛山去敏金色雅苑</t>
   </si>
   <si>
     <t>50908742</t>
@@ -7315,7 +7315,7 @@
     <t>50835567</t>
   </si>
   <si>
-    <t>佛山万科金色诚悦花园</t>
+    <t>佛山去敏金色诚悦花园</t>
   </si>
   <si>
     <t>50900912</t>
@@ -7339,7 +7339,7 @@
     <t>50835556</t>
   </si>
   <si>
-    <t>佛山万科广场</t>
+    <t>佛山去敏广场</t>
   </si>
   <si>
     <t>50904347</t>
@@ -7357,10 +7357,10 @@
     <t>50836733</t>
   </si>
   <si>
-    <t>佛山万科金域缇香花园</t>
-  </si>
-  <si>
-    <t>F05佛山顺德管理中心</t>
+    <t>佛山去敏金域缇香花园</t>
+  </si>
+  <si>
+    <t>F05佛山顺德去敏</t>
   </si>
   <si>
     <t>50835558</t>
@@ -7414,7 +7414,7 @@
     <t>50835555</t>
   </si>
   <si>
-    <t>佛山万科城</t>
+    <t>佛山去敏城</t>
   </si>
   <si>
     <t>50835564</t>
@@ -7432,7 +7432,7 @@
     <t>50907157</t>
   </si>
   <si>
-    <t>佛山万科美的西江悦花园</t>
+    <t>佛山去敏美的西江悦花园</t>
   </si>
   <si>
     <t>50835557</t>
@@ -7441,7 +7441,7 @@
     <t>Q佛山星醍苑</t>
   </si>
   <si>
-    <t>F06阵地经营体</t>
+    <t>F06去敏</t>
   </si>
   <si>
     <t>50835573</t>
@@ -7501,7 +7501,7 @@
     <t>50835592</t>
   </si>
   <si>
-    <t>珠海万科城市中心</t>
+    <t>珠海去敏城市中心</t>
   </si>
   <si>
     <t>50835583</t>
@@ -7621,7 +7621,7 @@
     <t>50909005</t>
   </si>
   <si>
-    <t>珠海万科城市中心回迁区</t>
+    <t>珠海去敏城市中心回迁区</t>
   </si>
   <si>
     <t>50835569</t>
@@ -7654,7 +7654,7 @@
     <t>珠海金域蓝湾</t>
   </si>
   <si>
-    <t>F07长沙橘洲管理中心</t>
+    <t>F07长沙橘洲去敏</t>
   </si>
   <si>
     <t>50835601</t>
@@ -7747,7 +7747,7 @@
     <t>R长沙和庄</t>
   </si>
   <si>
-    <t>F08南宁城区管理中心</t>
+    <t>F08南宁城区去敏</t>
   </si>
   <si>
     <t>50835615</t>
@@ -7801,7 +7801,7 @@
     <t>50835619</t>
   </si>
   <si>
-    <t>南宁万科城</t>
+    <t>南宁去敏城</t>
   </si>
   <si>
     <t>50904587</t>
@@ -7819,16 +7819,16 @@
     <t>50907953</t>
   </si>
   <si>
-    <t>南宁万科公园里</t>
-  </si>
-  <si>
-    <t>F09长沙麓山管理中心</t>
+    <t>南宁去敏公园里</t>
+  </si>
+  <si>
+    <t>F09长沙麓山去敏</t>
   </si>
   <si>
     <t>50835609</t>
   </si>
   <si>
-    <t>长沙万科城</t>
+    <t>长沙去敏城</t>
   </si>
   <si>
     <t>50904468</t>
@@ -7876,7 +7876,7 @@
     <t>50900321</t>
   </si>
   <si>
-    <t>长沙万科城-BG</t>
+    <t>长沙去敏城-BG</t>
   </si>
   <si>
     <t>50835603</t>
@@ -7900,7 +7900,7 @@
     <t>G</t>
   </si>
   <si>
-    <t>G01武汉汉口管理中心</t>
+    <t>G01武汉汉口去敏</t>
   </si>
   <si>
     <t>50835629</t>
@@ -7993,7 +7993,7 @@
     <t>武汉圆方</t>
   </si>
   <si>
-    <t>G02阵地经营体</t>
+    <t>G02去敏</t>
   </si>
   <si>
     <t>50835652</t>
@@ -8086,7 +8086,7 @@
     <t>Q武汉光谷汇景</t>
   </si>
   <si>
-    <t>G03武汉汉阳管理中心</t>
+    <t>G03武汉汉阳去敏</t>
   </si>
   <si>
     <t>50835669</t>
@@ -8125,7 +8125,7 @@
     <t>Q武汉市汇博苑小区</t>
   </si>
   <si>
-    <t>G04阵地经营体</t>
+    <t>G04去敏</t>
   </si>
   <si>
     <t>50835678</t>
@@ -8143,13 +8143,13 @@
     <t>50835686</t>
   </si>
   <si>
-    <t>西安万科金域东郡</t>
+    <t>西安去敏金域东郡</t>
   </si>
   <si>
     <t>50835682</t>
   </si>
   <si>
-    <t>西安万科城</t>
+    <t>西安去敏城</t>
   </si>
   <si>
     <t>50900917</t>
@@ -8161,7 +8161,7 @@
     <t>50901358</t>
   </si>
   <si>
-    <t>中铁建万科翡翠国际</t>
+    <t>中铁建去敏翡翠国际</t>
   </si>
   <si>
     <t>50907286</t>
@@ -8173,19 +8173,19 @@
     <t>50906604</t>
   </si>
   <si>
-    <t>西安万科城润园</t>
+    <t>西安去敏城润园</t>
   </si>
   <si>
     <t>50835683</t>
   </si>
   <si>
-    <t>西安万科城8#地</t>
+    <t>西安去敏城8#地</t>
   </si>
   <si>
     <t>50904259</t>
   </si>
   <si>
-    <t>西安万科翡翠天誉</t>
+    <t>西安去敏翡翠天誉</t>
   </si>
   <si>
     <t>50835687</t>
@@ -8197,7 +8197,7 @@
     <t>50835684</t>
   </si>
   <si>
-    <t>西安万科东方传奇</t>
+    <t>西安去敏东方传奇</t>
   </si>
   <si>
     <t>50835679</t>
@@ -8239,10 +8239,10 @@
     <t>50835685</t>
   </si>
   <si>
-    <t>西安万科金色悦郡</t>
-  </si>
-  <si>
-    <t>G05郑州城区管理中心</t>
+    <t>西安去敏金色悦郡</t>
+  </si>
+  <si>
+    <t>G05郑州城区去敏</t>
   </si>
   <si>
     <t>50835705</t>
@@ -8308,25 +8308,25 @@
     <t>50901568</t>
   </si>
   <si>
-    <t>郑州万科城嘉兰苑物业服务中心</t>
+    <t>郑州去敏城嘉兰苑物业服务中心</t>
   </si>
   <si>
     <t>50835712</t>
   </si>
   <si>
-    <t>郑州万科城紫兰苑</t>
+    <t>郑州去敏城紫兰苑</t>
   </si>
   <si>
     <t>50835709</t>
   </si>
   <si>
-    <t>郑州万科美景魅力之城</t>
+    <t>郑州去敏美景魅力之城</t>
   </si>
   <si>
     <t>50907204</t>
   </si>
   <si>
-    <t>郑州万科·美景魅力之城东麓</t>
+    <t>郑州去敏·美景魅力之城东麓</t>
   </si>
   <si>
     <t>50835706</t>
@@ -8344,13 +8344,13 @@
     <t>50835711</t>
   </si>
   <si>
-    <t>郑州万科城锦枫苑</t>
+    <t>郑州去敏城锦枫苑</t>
   </si>
   <si>
     <t>50835703</t>
   </si>
   <si>
-    <t>万科城秋棠苑</t>
+    <t>去敏城秋棠苑</t>
   </si>
   <si>
     <t>50904080</t>
@@ -8362,16 +8362,16 @@
     <t>50905582</t>
   </si>
   <si>
-    <t>郑州万科荣成兰园</t>
+    <t>郑州去敏荣成兰园</t>
   </si>
   <si>
     <t>50905937</t>
   </si>
   <si>
-    <t>郑州万科城琅寓物业服务中心</t>
-  </si>
-  <si>
-    <t>G06武汉中部管理中心</t>
+    <t>郑州去敏城琅寓物业服务中心</t>
+  </si>
+  <si>
+    <t>G06武汉中部去敏</t>
   </si>
   <si>
     <t>50835634</t>
@@ -8413,7 +8413,7 @@
     <t>50835637</t>
   </si>
   <si>
-    <t>武汉万科城</t>
+    <t>武汉去敏城</t>
   </si>
   <si>
     <t>50835639</t>
@@ -8431,7 +8431,7 @@
     <t>50908520</t>
   </si>
   <si>
-    <t>武汉万科金域时代</t>
+    <t>武汉去敏金域时代</t>
   </si>
   <si>
     <t>50835653</t>
@@ -8461,7 +8461,7 @@
     <t>H</t>
   </si>
   <si>
-    <t>H01阵地经营体</t>
+    <t>H01去敏</t>
   </si>
   <si>
     <t>50835723</t>
@@ -8581,7 +8581,7 @@
     <t>50835730</t>
   </si>
   <si>
-    <t>成都万科第五城</t>
+    <t>成都去敏第五城</t>
   </si>
   <si>
     <t>50835728</t>
@@ -8593,7 +8593,7 @@
     <t>50906764</t>
   </si>
   <si>
-    <t>成都万科.翡翠公园</t>
+    <t>成都去敏.翡翠公园</t>
   </si>
   <si>
     <t>50908448</t>
@@ -8602,7 +8602,7 @@
     <t>Q成都北辰香麓</t>
   </si>
   <si>
-    <t>H02阵地经营体</t>
+    <t>H02去敏</t>
   </si>
   <si>
     <t>50835743</t>
@@ -8737,37 +8737,37 @@
     <t>成都金色家园</t>
   </si>
   <si>
-    <t>H03阵地经营体</t>
+    <t>H03去敏</t>
   </si>
   <si>
     <t>50835756</t>
   </si>
   <si>
-    <t>重庆御澜道</t>
+    <t>去敏御澜道</t>
   </si>
   <si>
     <t>50835755</t>
   </si>
   <si>
-    <t>重庆渝园.朗润园</t>
+    <t>去敏渝园.朗润园</t>
   </si>
   <si>
     <t>50835753</t>
   </si>
   <si>
-    <t>重庆缇香郡</t>
+    <t>去敏缇香郡</t>
   </si>
   <si>
     <t>50835749</t>
   </si>
   <si>
-    <t>CSW重庆首创光和城</t>
+    <t>CSW去敏首创光和城</t>
   </si>
   <si>
     <t>50835758</t>
   </si>
   <si>
-    <t>重庆悦湾</t>
+    <t>去敏悦湾</t>
   </si>
   <si>
     <t>50904340</t>
@@ -8779,58 +8779,58 @@
     <t>50835748</t>
   </si>
   <si>
-    <t>CSW重庆首创城</t>
+    <t>CSW去敏首创城</t>
   </si>
   <si>
     <t>50835757</t>
   </si>
   <si>
-    <t>重庆悦府.悦峰</t>
+    <t>去敏悦府.悦峰</t>
   </si>
   <si>
     <t>50906903</t>
   </si>
   <si>
-    <t>Q重庆首创嘉陵二期</t>
+    <t>Q去敏首创嘉陵二期</t>
   </si>
   <si>
     <t>50835752</t>
   </si>
   <si>
-    <t>重庆金色悦城</t>
+    <t>去敏金色悦城</t>
   </si>
   <si>
     <t>50835754</t>
   </si>
   <si>
-    <t>重庆万科城</t>
+    <t>去敏去敏城</t>
   </si>
   <si>
     <t>50901048</t>
   </si>
   <si>
-    <t>重庆蓝澳岛</t>
+    <t>去敏蓝澳岛</t>
   </si>
   <si>
     <t>50901896</t>
   </si>
   <si>
-    <t>重庆中开·熙岸A区</t>
+    <t>去敏中开·熙岸A区</t>
   </si>
   <si>
     <t>50908643</t>
   </si>
   <si>
-    <t>重庆观承</t>
+    <t>去敏观承</t>
   </si>
   <si>
     <t>50909428</t>
   </si>
   <si>
-    <t>重庆金域华庭</t>
-  </si>
-  <si>
-    <t>H04昆明北部管理中心</t>
+    <t>去敏金域华庭</t>
+  </si>
+  <si>
+    <t>H04昆明北部去敏</t>
   </si>
   <si>
     <t>50905966</t>
@@ -8935,7 +8935,7 @@
     <t>R昆明金色家园东区</t>
   </si>
   <si>
-    <t>H05阵地经营体</t>
+    <t>H05去敏</t>
   </si>
   <si>
     <t>50901627</t>
@@ -8995,7 +8995,7 @@
     <t>50903605</t>
   </si>
   <si>
-    <t>成都万科理想城</t>
+    <t>成都去敏理想城</t>
   </si>
   <si>
     <t>50835778</t>
@@ -9049,79 +9049,79 @@
     <t>50835780</t>
   </si>
   <si>
-    <t>成都万科城</t>
-  </si>
-  <si>
-    <t>H06重庆南部管理中心</t>
+    <t>成都去敏城</t>
+  </si>
+  <si>
+    <t>H06去敏南部去敏</t>
   </si>
   <si>
     <t>50836619</t>
   </si>
   <si>
-    <t>Q重庆中核紫金一品</t>
+    <t>Q去敏中核紫金一品</t>
   </si>
   <si>
     <t>50835788</t>
   </si>
   <si>
-    <t>CSW重庆首创鸿恩国际</t>
+    <t>CSW去敏首创鸿恩国际</t>
   </si>
   <si>
     <t>50835792</t>
   </si>
   <si>
-    <t>重庆锦程</t>
+    <t>去敏锦程</t>
   </si>
   <si>
     <t>50909252</t>
   </si>
   <si>
-    <t>重庆翡翠天麓</t>
+    <t>去敏翡翠天麓</t>
   </si>
   <si>
     <t>50906902</t>
   </si>
   <si>
-    <t>重庆瑞丰鹅岭山</t>
+    <t>去敏瑞丰鹅岭山</t>
   </si>
   <si>
     <t>50835790</t>
   </si>
   <si>
-    <t>重庆金域学府·翰江</t>
+    <t>去敏金域学府·翰江</t>
   </si>
   <si>
     <t>50835796</t>
   </si>
   <si>
-    <t>重庆西九</t>
+    <t>去敏西九</t>
   </si>
   <si>
     <t>50835791</t>
   </si>
   <si>
-    <t>重庆金域学府·翰林</t>
+    <t>去敏金域学府·翰林</t>
   </si>
   <si>
     <t>50835794</t>
   </si>
   <si>
-    <t>重庆万科锦尚</t>
+    <t>去敏去敏锦尚</t>
   </si>
   <si>
     <t>50835795</t>
   </si>
   <si>
-    <t>重庆西城</t>
+    <t>去敏西城</t>
   </si>
   <si>
     <t>50909430</t>
   </si>
   <si>
-    <t>Q重庆北麓官邸</t>
-  </si>
-  <si>
-    <t>H07贵阳城区管理中心</t>
+    <t>Q去敏北麓官邸</t>
+  </si>
+  <si>
+    <t>H07贵阳城区去敏</t>
   </si>
   <si>
     <t>50835797</t>
@@ -9139,7 +9139,7 @@
     <t>50835805</t>
   </si>
   <si>
-    <t>贵阳万科悦城</t>
+    <t>贵阳去敏悦城</t>
   </si>
   <si>
     <t>50835803</t>
@@ -9151,7 +9151,7 @@
     <t>50835806</t>
   </si>
   <si>
-    <t>贵阳万科云岩大都会</t>
+    <t>贵阳去敏云岩大都会</t>
   </si>
   <si>
     <t>50835802</t>
@@ -9169,7 +9169,7 @@
     <t>50835804</t>
   </si>
   <si>
-    <t>贵阳万科城</t>
+    <t>贵阳去敏城</t>
   </si>
   <si>
     <t>50835801</t>
@@ -9184,7 +9184,7 @@
     <t>R贵阳小石城二期公园传奇</t>
   </si>
   <si>
-    <t>H08昆明南部管理中心</t>
+    <t>H08昆明南部去敏</t>
   </si>
   <si>
     <t>50835770</t>
@@ -9214,7 +9214,7 @@
     <t>50907974</t>
   </si>
   <si>
-    <t>昆明万科翡翠</t>
+    <t>昆明去敏翡翠</t>
   </si>
   <si>
     <t>50907227</t>
@@ -9240,11 +9240,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-10804]0.00%"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-10804]0.00%"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9273,6 +9273,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -9281,9 +9304,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9297,8 +9343,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9312,38 +9359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -9365,36 +9381,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -9410,10 +9396,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -9444,7 +9444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9456,7 +9486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9468,13 +9498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9486,19 +9510,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9510,103 +9570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9624,7 +9594,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9662,26 +9662,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9701,28 +9701,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -9744,6 +9733,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -9755,79 +9755,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -9836,67 +9836,67 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9919,10 +9919,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -11932,7 +11932,7 @@
         <v>0.1578947368421</v>
       </c>
     </row>
-    <row r="31" ht="31" spans="1:18">
+    <row r="31" ht="16" spans="1:18">
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>0.0430107526881</v>
       </c>
     </row>
-    <row r="37" ht="31" spans="1:18">
+    <row r="37" ht="16" spans="1:18">
       <c r="A37" s="3" t="s">
         <v>18</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="31" spans="1:18">
+    <row r="57" ht="16" spans="1:18">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>0.0434782608695</v>
       </c>
     </row>
-    <row r="60" ht="31" spans="1:18">
+    <row r="60" ht="16" spans="1:18">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0.0307692307692</v>
       </c>
     </row>
-    <row r="62" ht="31" spans="1:18">
+    <row r="62" ht="16" spans="1:18">
       <c r="A62" s="2" t="s">
         <v>18</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>0.3448275862068</v>
       </c>
     </row>
-    <row r="140" ht="31" spans="1:18">
+    <row r="140" ht="16" spans="1:18">
       <c r="A140" s="2" t="s">
         <v>18</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>0.0555555555555</v>
       </c>
     </row>
-    <row r="156" ht="31" spans="1:18">
+    <row r="156" ht="16" spans="1:18">
       <c r="A156" s="2" t="s">
         <v>18</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="209" ht="31" spans="1:18">
+    <row r="209" ht="16" spans="1:18">
       <c r="A209" s="3" t="s">
         <v>18</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>0.2307692307692</v>
       </c>
     </row>
-    <row r="216" ht="31" spans="1:18">
+    <row r="216" ht="16" spans="1:18">
       <c r="A216" s="2" t="s">
         <v>18</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="218" ht="31" spans="1:18">
+    <row r="218" ht="16" spans="1:18">
       <c r="A218" s="2" t="s">
         <v>18</v>
       </c>
@@ -23916,7 +23916,7 @@
         <v>0.1379310344827</v>
       </c>
     </row>
-    <row r="245" ht="31" spans="1:18">
+    <row r="245" ht="16" spans="1:18">
       <c r="A245" s="3" t="s">
         <v>467</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>0.1481481481481</v>
       </c>
     </row>
-    <row r="246" ht="31" spans="1:18">
+    <row r="246" ht="16" spans="1:18">
       <c r="A246" s="2" t="s">
         <v>467</v>
       </c>
@@ -24084,7 +24084,7 @@
         <v>0.0357142857142</v>
       </c>
     </row>
-    <row r="248" ht="31" spans="1:18">
+    <row r="248" ht="16" spans="1:18">
       <c r="A248" s="2" t="s">
         <v>467</v>
       </c>
@@ -24196,7 +24196,7 @@
         <v>0.1304347826086</v>
       </c>
     </row>
-    <row r="250" ht="31" spans="1:18">
+    <row r="250" ht="16" spans="1:18">
       <c r="A250" s="2" t="s">
         <v>467</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>0.1052631578947</v>
       </c>
     </row>
-    <row r="260" ht="31" spans="1:18">
+    <row r="260" ht="16" spans="1:18">
       <c r="A260" s="2" t="s">
         <v>467</v>
       </c>
@@ -24924,7 +24924,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="263" ht="31" spans="1:18">
+    <row r="263" ht="16" spans="1:18">
       <c r="A263" s="3" t="s">
         <v>467</v>
       </c>
@@ -25148,7 +25148,7 @@
         <v>0.0285714285714</v>
       </c>
     </row>
-    <row r="267" ht="31" spans="1:18">
+    <row r="267" ht="16" spans="1:18">
       <c r="A267" s="3" t="s">
         <v>467</v>
       </c>
@@ -25204,7 +25204,7 @@
         <v>0.1578947368421</v>
       </c>
     </row>
-    <row r="268" ht="31" spans="1:18">
+    <row r="268" ht="16" spans="1:18">
       <c r="A268" s="2" t="s">
         <v>467</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>0.047619047619</v>
       </c>
     </row>
-    <row r="270" ht="31" spans="1:18">
+    <row r="270" ht="16" spans="1:18">
       <c r="A270" s="2" t="s">
         <v>467</v>
       </c>
@@ -25372,7 +25372,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="271" ht="31" spans="1:18">
+    <row r="271" ht="16" spans="1:18">
       <c r="A271" s="3" t="s">
         <v>467</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" ht="31" spans="1:18">
+    <row r="273" ht="16" spans="1:18">
       <c r="A273" s="3" t="s">
         <v>467</v>
       </c>
@@ -25540,7 +25540,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="274" ht="31" spans="1:18">
+    <row r="274" ht="16" spans="1:18">
       <c r="A274" s="2" t="s">
         <v>467</v>
       </c>
@@ -25652,7 +25652,7 @@
         <v>0.0277777777777</v>
       </c>
     </row>
-    <row r="276" ht="31" spans="1:18">
+    <row r="276" ht="16" spans="1:18">
       <c r="A276" s="2" t="s">
         <v>467</v>
       </c>
@@ -26604,7 +26604,7 @@
         <v>0.2051282051282</v>
       </c>
     </row>
-    <row r="293" ht="31" spans="1:18">
+    <row r="293" ht="16" spans="1:18">
       <c r="A293" s="3" t="s">
         <v>467</v>
       </c>
@@ -34948,7 +34948,7 @@
         <v>0.0322580645161</v>
       </c>
     </row>
-    <row r="442" ht="31" spans="1:18">
+    <row r="442" ht="16" spans="1:18">
       <c r="A442" s="2" t="s">
         <v>916</v>
       </c>
@@ -35452,7 +35452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" ht="31" spans="1:18">
+    <row r="451" ht="16" spans="1:18">
       <c r="A451" s="3" t="s">
         <v>916</v>
       </c>
@@ -35676,7 +35676,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="455" ht="31" spans="1:18">
+    <row r="455" ht="16" spans="1:18">
       <c r="A455" s="3" t="s">
         <v>916</v>
       </c>
@@ -35732,7 +35732,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="456" ht="31" spans="1:18">
+    <row r="456" ht="16" spans="1:18">
       <c r="A456" s="2" t="s">
         <v>916</v>
       </c>
@@ -36012,7 +36012,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="461" ht="31" spans="1:18">
+    <row r="461" ht="16" spans="1:18">
       <c r="A461" s="3" t="s">
         <v>916</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>0.0967741935483</v>
       </c>
     </row>
-    <row r="467" ht="31" spans="1:18">
+    <row r="467" ht="16" spans="1:18">
       <c r="A467" s="3" t="s">
         <v>916</v>
       </c>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" ht="31" spans="1:18">
+    <row r="469" ht="16" spans="1:18">
       <c r="A469" s="3" t="s">
         <v>916</v>
       </c>
@@ -36516,7 +36516,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="470" ht="31" spans="1:18">
+    <row r="470" ht="16" spans="1:18">
       <c r="A470" s="2" t="s">
         <v>916</v>
       </c>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" ht="31" spans="1:18">
+    <row r="484" ht="16" spans="1:18">
       <c r="A484" s="2" t="s">
         <v>916</v>
       </c>
@@ -37804,7 +37804,7 @@
         <v>0.0980392156862</v>
       </c>
     </row>
-    <row r="493" ht="31" spans="1:18">
+    <row r="493" ht="16" spans="1:18">
       <c r="A493" s="3" t="s">
         <v>916</v>
       </c>
@@ -37860,7 +37860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" ht="31" spans="1:18">
+    <row r="494" ht="16" spans="1:18">
       <c r="A494" s="2" t="s">
         <v>916</v>
       </c>
@@ -37972,7 +37972,7 @@
         <v>0.054054054054</v>
       </c>
     </row>
-    <row r="496" ht="31" spans="1:18">
+    <row r="496" ht="16" spans="1:18">
       <c r="A496" s="2" t="s">
         <v>916</v>
       </c>
@@ -38140,7 +38140,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="499" ht="31" spans="1:18">
+    <row r="499" ht="16" spans="1:18">
       <c r="A499" s="3" t="s">
         <v>916</v>
       </c>
@@ -39428,7 +39428,7 @@
         <v>0.0882352941176</v>
       </c>
     </row>
-    <row r="522" ht="31" spans="1:18">
+    <row r="522" ht="16" spans="1:18">
       <c r="A522" s="2" t="s">
         <v>916</v>
       </c>
@@ -39652,7 +39652,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="526" ht="31" spans="1:18">
+    <row r="526" ht="16" spans="1:18">
       <c r="A526" s="2" t="s">
         <v>916</v>
       </c>
@@ -39820,7 +39820,7 @@
         <v>0.2083333333333</v>
       </c>
     </row>
-    <row r="529" ht="31" spans="1:18">
+    <row r="529" ht="16" spans="1:18">
       <c r="A529" s="3" t="s">
         <v>916</v>
       </c>
@@ -40044,7 +40044,7 @@
         <v>0.1290322580645</v>
       </c>
     </row>
-    <row r="533" ht="31" spans="1:18">
+    <row r="533" ht="16" spans="1:18">
       <c r="A533" s="3" t="s">
         <v>916</v>
       </c>
@@ -40324,7 +40324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" ht="31" spans="1:18">
+    <row r="538" ht="16" spans="1:18">
       <c r="A538" s="2" t="s">
         <v>916</v>
       </c>
@@ -40716,7 +40716,7 @@
         <v>0.1470588235294</v>
       </c>
     </row>
-    <row r="545" ht="31" spans="1:18">
+    <row r="545" ht="16" spans="1:18">
       <c r="A545" s="3" t="s">
         <v>916</v>
       </c>
@@ -40828,7 +40828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" ht="31" spans="1:18">
+    <row r="547" ht="16" spans="1:18">
       <c r="A547" s="3" t="s">
         <v>916</v>
       </c>
@@ -40884,7 +40884,7 @@
         <v>0.0555555555555</v>
       </c>
     </row>
-    <row r="548" ht="31" spans="1:18">
+    <row r="548" ht="16" spans="1:18">
       <c r="A548" s="2" t="s">
         <v>916</v>
       </c>
@@ -41108,7 +41108,7 @@
         <v>0.0232558139534</v>
       </c>
     </row>
-    <row r="552" ht="31" spans="1:18">
+    <row r="552" ht="16" spans="1:18">
       <c r="A552" s="2" t="s">
         <v>916</v>
       </c>
@@ -41164,7 +41164,7 @@
         <v>0.0449438202247</v>
       </c>
     </row>
-    <row r="553" ht="31" spans="1:18">
+    <row r="553" ht="16" spans="1:18">
       <c r="A553" s="3" t="s">
         <v>916</v>
       </c>
@@ -41332,7 +41332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" ht="31" spans="1:18">
+    <row r="556" ht="16" spans="1:18">
       <c r="A556" s="2" t="s">
         <v>916</v>
       </c>
@@ -41668,7 +41668,7 @@
         <v>0.0089285714285</v>
       </c>
     </row>
-    <row r="562" ht="31" spans="1:18">
+    <row r="562" ht="16" spans="1:18">
       <c r="A562" s="2" t="s">
         <v>916</v>
       </c>
@@ -41948,7 +41948,7 @@
         <v>0.03125</v>
       </c>
     </row>
-    <row r="567" ht="31" spans="1:18">
+    <row r="567" ht="16" spans="1:18">
       <c r="A567" s="3" t="s">
         <v>916</v>
       </c>
@@ -43796,7 +43796,7 @@
         <v>0.0666666666666</v>
       </c>
     </row>
-    <row r="600" ht="31" spans="1:18">
+    <row r="600" ht="16" spans="1:18">
       <c r="A600" s="2" t="s">
         <v>1220</v>
       </c>
@@ -44188,7 +44188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" ht="31" spans="1:18">
+    <row r="607" ht="16" spans="1:18">
       <c r="A607" s="3" t="s">
         <v>1220</v>
       </c>
@@ -44300,7 +44300,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="609" ht="31" spans="1:18">
+    <row r="609" ht="16" spans="1:18">
       <c r="A609" s="3" t="s">
         <v>1220</v>
       </c>
@@ -47884,7 +47884,7 @@
         <v>0.0857142857142</v>
       </c>
     </row>
-    <row r="673" ht="31" spans="1:18">
+    <row r="673" ht="16" spans="1:18">
       <c r="A673" s="3" t="s">
         <v>1220</v>
       </c>
@@ -47940,7 +47940,7 @@
         <v>0.1764705882352</v>
       </c>
     </row>
-    <row r="674" ht="31" spans="1:18">
+    <row r="674" ht="16" spans="1:18">
       <c r="A674" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48052,7 +48052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" ht="31" spans="1:18">
+    <row r="676" ht="16" spans="1:18">
       <c r="A676" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48108,7 +48108,7 @@
         <v>0.0645161290322</v>
       </c>
     </row>
-    <row r="677" ht="31" spans="1:18">
+    <row r="677" ht="16" spans="1:18">
       <c r="A677" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48276,7 +48276,7 @@
         <v>0.2173913043478</v>
       </c>
     </row>
-    <row r="680" ht="31" spans="1:18">
+    <row r="680" ht="16" spans="1:18">
       <c r="A680" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48500,7 +48500,7 @@
         <v>0.025</v>
       </c>
     </row>
-    <row r="684" ht="31" spans="1:18">
+    <row r="684" ht="16" spans="1:18">
       <c r="A684" s="2" t="s">
         <v>1220</v>
       </c>
@@ -48668,7 +48668,7 @@
         <v>0.0882352941176</v>
       </c>
     </row>
-    <row r="687" ht="31" spans="1:18">
+    <row r="687" ht="16" spans="1:18">
       <c r="A687" s="3" t="s">
         <v>1220</v>
       </c>
@@ -48892,7 +48892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" ht="31" spans="1:18">
+    <row r="691" ht="16" spans="1:18">
       <c r="A691" s="3" t="s">
         <v>1220</v>
       </c>
@@ -49172,7 +49172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" ht="31" spans="1:18">
+    <row r="696" ht="16" spans="1:18">
       <c r="A696" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51132,7 +51132,7 @@
         <v>0.0425531914893</v>
       </c>
     </row>
-    <row r="731" ht="31" spans="1:18">
+    <row r="731" ht="16" spans="1:18">
       <c r="A731" s="3" t="s">
         <v>1220</v>
       </c>
@@ -51636,7 +51636,7 @@
         <v>0.1111111111111</v>
       </c>
     </row>
-    <row r="740" ht="31" spans="1:18">
+    <row r="740" ht="16" spans="1:18">
       <c r="A740" s="2" t="s">
         <v>1220</v>
       </c>
@@ -51804,7 +51804,7 @@
         <v>0.095238095238</v>
       </c>
     </row>
-    <row r="743" ht="31" spans="1:18">
+    <row r="743" ht="16" spans="1:18">
       <c r="A743" s="3" t="s">
         <v>1220</v>
       </c>
@@ -52644,7 +52644,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="758" ht="31" spans="1:18">
+    <row r="758" ht="16" spans="1:18">
       <c r="A758" s="2" t="s">
         <v>1220</v>
       </c>
@@ -52756,7 +52756,7 @@
         <v>0.3333333333333</v>
       </c>
     </row>
-    <row r="760" ht="31" spans="1:18">
+    <row r="760" ht="16" spans="1:18">
       <c r="A760" s="2" t="s">
         <v>1220</v>
       </c>
@@ -53372,7 +53372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" ht="31" spans="1:18">
+    <row r="771" ht="16" spans="1:18">
       <c r="A771" s="3" t="s">
         <v>1220</v>
       </c>
@@ -53428,7 +53428,7 @@
         <v>0.1206896551724</v>
       </c>
     </row>
-    <row r="772" ht="31" spans="1:18">
+    <row r="772" ht="16" spans="1:18">
       <c r="A772" s="2" t="s">
         <v>1220</v>
       </c>
@@ -54380,7 +54380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" ht="31" spans="1:18">
+    <row r="789" ht="16" spans="1:18">
       <c r="A789" s="3" t="s">
         <v>1220</v>
       </c>
@@ -54436,7 +54436,7 @@
         <v>0.0238095238095</v>
       </c>
     </row>
-    <row r="790" ht="31" spans="1:18">
+    <row r="790" ht="16" spans="1:18">
       <c r="A790" s="2" t="s">
         <v>1220</v>
       </c>
@@ -54716,7 +54716,7 @@
         <v>0.0322580645161</v>
       </c>
     </row>
-    <row r="795" ht="31" spans="1:18">
+    <row r="795" ht="16" spans="1:18">
       <c r="A795" s="3" t="s">
         <v>1220</v>
       </c>
@@ -59644,7 +59644,7 @@
         <v>0.1666666666666</v>
       </c>
     </row>
-    <row r="883" ht="31" spans="1:18">
+    <row r="883" ht="16" spans="1:18">
       <c r="A883" s="3" t="s">
         <v>1710</v>
       </c>
@@ -59868,7 +59868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" ht="31" spans="1:18">
+    <row r="887" ht="16" spans="1:18">
       <c r="A887" s="3" t="s">
         <v>1710</v>
       </c>
@@ -60876,7 +60876,7 @@
         <v>0.078947368421</v>
       </c>
     </row>
-    <row r="905" ht="31" spans="1:18">
+    <row r="905" ht="16" spans="1:18">
       <c r="A905" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61212,7 +61212,7 @@
         <v>0.1176470588235</v>
       </c>
     </row>
-    <row r="911" ht="31" spans="1:18">
+    <row r="911" ht="16" spans="1:18">
       <c r="A911" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61324,7 +61324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" ht="31" spans="1:18">
+    <row r="913" ht="16" spans="1:18">
       <c r="A913" s="3" t="s">
         <v>1710</v>
       </c>
@@ -61548,7 +61548,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="917" ht="31" spans="1:18">
+    <row r="917" ht="16" spans="1:18">
       <c r="A917" s="3" t="s">
         <v>1710</v>
       </c>
@@ -62724,7 +62724,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="938" ht="31" spans="1:18">
+    <row r="938" ht="16" spans="1:18">
       <c r="A938" s="2" t="s">
         <v>1710</v>
       </c>
@@ -62948,7 +62948,7 @@
         <v>0.0344827586206</v>
       </c>
     </row>
-    <row r="942" ht="31" spans="1:18">
+    <row r="942" ht="16" spans="1:18">
       <c r="A942" s="2" t="s">
         <v>1710</v>
       </c>
@@ -63564,7 +63564,7 @@
         <v>0.0384615384615</v>
       </c>
     </row>
-    <row r="953" ht="31" spans="1:18">
+    <row r="953" ht="16" spans="1:18">
       <c r="A953" s="3" t="s">
         <v>1710</v>
       </c>
@@ -71908,7 +71908,7 @@
         <v>0.0243902439024</v>
       </c>
     </row>
-    <row r="1102" ht="31" spans="1:18">
+    <row r="1102" ht="16" spans="1:18">
       <c r="A1102" s="2" t="s">
         <v>1710</v>
       </c>
@@ -71964,7 +71964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1103" ht="31" spans="1:18">
+    <row r="1103" ht="16" spans="1:18">
       <c r="A1103" s="3" t="s">
         <v>1710</v>
       </c>
@@ -72412,7 +72412,7 @@
         <v>0.0322580645161</v>
       </c>
     </row>
-    <row r="1111" ht="31" spans="1:18">
+    <row r="1111" ht="16" spans="1:18">
       <c r="A1111" s="3" t="s">
         <v>1710</v>
       </c>
@@ -73140,7 +73140,7 @@
         <v>0.1071428571428</v>
       </c>
     </row>
-    <row r="1124" ht="31" spans="1:18">
+    <row r="1124" ht="16" spans="1:18">
       <c r="A1124" s="2" t="s">
         <v>2292</v>
       </c>
@@ -73588,7 +73588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1132" ht="31" spans="1:18">
+    <row r="1132" ht="16" spans="1:18">
       <c r="A1132" s="2" t="s">
         <v>2292</v>
       </c>
@@ -74092,7 +74092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1141" ht="31" spans="1:18">
+    <row r="1141" ht="16" spans="1:18">
       <c r="A1141" s="3" t="s">
         <v>2292</v>
       </c>
@@ -77452,7 +77452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1201" ht="31" spans="1:18">
+    <row r="1201" ht="16" spans="1:18">
       <c r="A1201" s="3" t="s">
         <v>2292</v>
       </c>
@@ -82436,7 +82436,7 @@
         <v>0.0602409638554</v>
       </c>
     </row>
-    <row r="1290" ht="31" spans="1:18">
+    <row r="1290" ht="16" spans="1:18">
       <c r="A1290" s="2" t="s">
         <v>2626</v>
       </c>
@@ -82604,7 +82604,7 @@
         <v>0.0843373493975</v>
       </c>
     </row>
-    <row r="1293" ht="31" spans="1:18">
+    <row r="1293" ht="16" spans="1:18">
       <c r="A1293" s="3" t="s">
         <v>2626</v>
       </c>
@@ -82660,7 +82660,7 @@
         <v>0.0461538461538</v>
       </c>
     </row>
-    <row r="1294" ht="31" spans="1:18">
+    <row r="1294" ht="16" spans="1:18">
       <c r="A1294" s="2" t="s">
         <v>2626</v>
       </c>
@@ -83612,7 +83612,7 @@
         <v>0.0357142857142</v>
       </c>
     </row>
-    <row r="1311" ht="31" spans="1:18">
+    <row r="1311" ht="16" spans="1:18">
       <c r="A1311" s="3" t="s">
         <v>2626</v>
       </c>
@@ -83724,7 +83724,7 @@
         <v>0.0615384615384</v>
       </c>
     </row>
-    <row r="1313" ht="31" spans="1:18">
+    <row r="1313" ht="16" spans="1:18">
       <c r="A1313" s="3" t="s">
         <v>2626</v>
       </c>
@@ -84116,7 +84116,7 @@
         <v>0.0232558139534</v>
       </c>
     </row>
-    <row r="1320" ht="31" spans="1:18">
+    <row r="1320" ht="16" spans="1:18">
       <c r="A1320" s="2" t="s">
         <v>2626</v>
       </c>
@@ -84284,7 +84284,7 @@
         <v>0.0666666666666</v>
       </c>
     </row>
-    <row r="1323" ht="31" spans="1:18">
+    <row r="1323" ht="16" spans="1:18">
       <c r="A1323" s="3" t="s">
         <v>2626</v>
       </c>
@@ -84340,7 +84340,7 @@
         <v>0.1509433962264</v>
       </c>
     </row>
-    <row r="1324" ht="31" spans="1:18">
+    <row r="1324" ht="16" spans="1:18">
       <c r="A1324" s="2" t="s">
         <v>2626</v>
       </c>
@@ -86580,7 +86580,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="1364" ht="31" spans="1:18">
+    <row r="1364" ht="16" spans="1:18">
       <c r="A1364" s="2" t="s">
         <v>2813</v>
       </c>
@@ -86748,7 +86748,7 @@
         <v>0.0892857142857</v>
       </c>
     </row>
-    <row r="1367" ht="31" spans="1:18">
+    <row r="1367" ht="16" spans="1:18">
       <c r="A1367" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89100,7 +89100,7 @@
         <v>0.0833333333333</v>
       </c>
     </row>
-    <row r="1409" ht="31" spans="1:18">
+    <row r="1409" ht="16" spans="1:18">
       <c r="A1409" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89212,7 +89212,7 @@
         <v>0.0579710144927</v>
       </c>
     </row>
-    <row r="1411" ht="31" spans="1:18">
+    <row r="1411" ht="16" spans="1:18">
       <c r="A1411" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89324,7 +89324,7 @@
         <v>0.0232558139534</v>
       </c>
     </row>
-    <row r="1413" ht="31" spans="1:18">
+    <row r="1413" ht="16" spans="1:18">
       <c r="A1413" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89660,7 +89660,7 @@
         <v>0.0206896551724</v>
       </c>
     </row>
-    <row r="1419" ht="31" spans="1:18">
+    <row r="1419" ht="16" spans="1:18">
       <c r="A1419" s="3" t="s">
         <v>2813</v>
       </c>
@@ -89716,7 +89716,7 @@
         <v>0.1532258064516</v>
       </c>
     </row>
-    <row r="1420" ht="31" spans="1:18">
+    <row r="1420" ht="16" spans="1:18">
       <c r="A1420" s="2" t="s">
         <v>2813</v>
       </c>
@@ -89828,7 +89828,7 @@
         <v>0.0571428571428</v>
       </c>
     </row>
-    <row r="1422" ht="31" spans="1:18">
+    <row r="1422" ht="16" spans="1:18">
       <c r="A1422" s="2" t="s">
         <v>2813</v>
       </c>
@@ -90892,7 +90892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1441" ht="31" spans="1:18">
+    <row r="1441" ht="16" spans="1:18">
       <c r="A1441" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91172,7 +91172,7 @@
         <v>0.076923076923</v>
       </c>
     </row>
-    <row r="1446" ht="31" spans="1:18">
+    <row r="1446" ht="16" spans="1:18">
       <c r="A1446" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91732,7 +91732,7 @@
         <v>0.090909090909</v>
       </c>
     </row>
-    <row r="1456" ht="31" spans="1:18">
+    <row r="1456" ht="16" spans="1:18">
       <c r="A1456" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91788,7 +91788,7 @@
         <v>0.0327868852459</v>
       </c>
     </row>
-    <row r="1457" ht="31" spans="1:18">
+    <row r="1457" ht="16" spans="1:18">
       <c r="A1457" s="3" t="s">
         <v>2813</v>
       </c>
@@ -91844,7 +91844,7 @@
         <v>0.0571428571428</v>
       </c>
     </row>
-    <row r="1458" ht="31" spans="1:18">
+    <row r="1458" ht="16" spans="1:18">
       <c r="A1458" s="2" t="s">
         <v>2813</v>
       </c>
@@ -91900,7 +91900,7 @@
         <v>0.1428571428571</v>
       </c>
     </row>
-    <row r="1459" ht="31" spans="1:18">
+    <row r="1459" ht="16" spans="1:18">
       <c r="A1459" s="3" t="s">
         <v>2813</v>
       </c>
